--- a/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/FormNhapHangMau.xlsx
+++ b/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/FormNhapHangMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hk5\PTUD_Java\Project\PharmacyManagementSystem_QLHT_NoFXML\src\main\resources\com\example\pharmacymanagementsystem_qlht\file_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5896C-3F94-4CE9-9E3D-38449E233CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20867499-ABE8-4F29-9686-F1688CB0E125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{405F7AB1-177A-4B9F-AF37-C3362006A74E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>HSD</t>
-  </si>
-  <si>
-    <t>Lô hàng</t>
   </si>
   <si>
     <t>Đơn vị nhập</t>
@@ -455,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC416D4-F297-4476-A657-7FE4F5D95829}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,8 +470,9 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
@@ -482,30 +480,30 @@
     <col min="18" max="18" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -526,10 +524,101 @@
         <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
